--- a/Modulo5/src/out/info_estados/Wisconsin.xlsx
+++ b/Modulo5/src/out/info_estados/Wisconsin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="98">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>W</t>
@@ -737,14 +743,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>1502</v>
       </c>
       <c r="M2">
         <v>55001</v>
@@ -781,14 +787,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>1374</v>
       </c>
       <c r="M3">
         <v>55001</v>
@@ -825,14 +831,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>2280</v>
       </c>
       <c r="M4">
         <v>55001</v>
@@ -869,14 +875,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="M5">
         <v>55001</v>
@@ -913,14 +919,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1361</v>
       </c>
       <c r="M6">
         <v>55001</v>
@@ -957,14 +963,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>2305</v>
       </c>
       <c r="M7">
         <v>55003</v>
@@ -1001,14 +1007,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>1347</v>
       </c>
       <c r="M8">
         <v>55003</v>
@@ -1045,14 +1051,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>1368</v>
       </c>
       <c r="M9">
         <v>55003</v>
@@ -1089,14 +1095,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="M10">
         <v>55003</v>
@@ -1133,14 +1139,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>796</v>
       </c>
       <c r="M11">
         <v>55003</v>
@@ -1177,14 +1183,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2961</v>
       </c>
       <c r="M12">
         <v>55005</v>
@@ -1221,14 +1227,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>95</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>2571</v>
       </c>
       <c r="M13">
         <v>55005</v>
@@ -1265,14 +1271,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4218</v>
       </c>
       <c r="M14">
         <v>55005</v>
@@ -1309,14 +1315,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>920</v>
       </c>
       <c r="M15">
         <v>55005</v>
@@ -1353,14 +1359,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3559</v>
       </c>
       <c r="M16">
         <v>55005</v>
@@ -1397,14 +1403,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>95</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>2605</v>
       </c>
       <c r="M17">
         <v>55007</v>
@@ -1441,14 +1447,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>1485</v>
       </c>
       <c r="M18">
         <v>55007</v>
@@ -1485,14 +1491,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>1600</v>
       </c>
       <c r="M19">
         <v>55007</v>
@@ -1529,14 +1535,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>449</v>
       </c>
       <c r="M20">
         <v>55007</v>
@@ -1573,14 +1579,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>927</v>
       </c>
       <c r="M21">
         <v>55007</v>
@@ -1617,14 +1623,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>95</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>22472</v>
       </c>
       <c r="M22">
         <v>55009</v>
@@ -1661,14 +1667,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>95</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>16627</v>
       </c>
       <c r="M23">
         <v>55009</v>
@@ -1705,14 +1711,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>18706</v>
       </c>
       <c r="M24">
         <v>55009</v>
@@ -1749,14 +1755,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>5051</v>
       </c>
       <c r="M25">
         <v>55009</v>
@@ -1793,14 +1799,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>25613</v>
       </c>
       <c r="M26">
         <v>55009</v>
@@ -1837,14 +1843,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>95</v>
       </c>
       <c r="K27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1149</v>
       </c>
       <c r="M27">
         <v>55011</v>
@@ -1881,14 +1887,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>95</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>826</v>
       </c>
       <c r="M28">
         <v>55011</v>
@@ -1925,14 +1931,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>96</v>
       </c>
       <c r="K29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1396</v>
       </c>
       <c r="M29">
         <v>55011</v>
@@ -1969,14 +1975,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="M30">
         <v>55011</v>
@@ -2013,14 +2019,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>940</v>
       </c>
       <c r="M31">
         <v>55011</v>
@@ -2057,14 +2063,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>95</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>934</v>
       </c>
       <c r="M32">
         <v>55013</v>
@@ -2101,14 +2107,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>95</v>
       </c>
       <c r="K33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>918</v>
       </c>
       <c r="M33">
         <v>55013</v>
@@ -2145,14 +2151,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>96</v>
       </c>
       <c r="K34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>1629</v>
       </c>
       <c r="M34">
         <v>55013</v>
@@ -2189,14 +2195,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>96</v>
       </c>
       <c r="K35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="M35">
         <v>55013</v>
@@ -2233,14 +2239,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>96</v>
       </c>
       <c r="K36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>1170</v>
       </c>
       <c r="M36">
         <v>55013</v>
@@ -2277,14 +2283,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>95</v>
       </c>
       <c r="K37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>4011</v>
       </c>
       <c r="M37">
         <v>55015</v>
@@ -2321,14 +2327,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>95</v>
       </c>
       <c r="K38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3032</v>
       </c>
       <c r="M38">
         <v>55015</v>
@@ -2365,14 +2371,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>96</v>
       </c>
       <c r="K39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>4052</v>
       </c>
       <c r="M39">
         <v>55015</v>
@@ -2409,14 +2415,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>96</v>
       </c>
       <c r="K40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>1203</v>
       </c>
       <c r="M40">
         <v>55015</v>
@@ -2453,14 +2459,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>96</v>
       </c>
       <c r="K41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>6140</v>
       </c>
       <c r="M41">
         <v>55015</v>
@@ -2497,14 +2503,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>95</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>5115</v>
       </c>
       <c r="M42">
         <v>55017</v>
@@ -2541,14 +2547,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>95</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>4022</v>
       </c>
       <c r="M43">
         <v>55017</v>
@@ -2585,14 +2591,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>96</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>5833</v>
       </c>
       <c r="M44">
         <v>55017</v>
@@ -2629,14 +2635,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>96</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>1100</v>
       </c>
       <c r="M45">
         <v>55017</v>
@@ -2673,14 +2679,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>96</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>5543</v>
       </c>
       <c r="M46">
         <v>55017</v>
@@ -2717,14 +2723,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>95</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>1943</v>
       </c>
       <c r="M47">
         <v>55019</v>
@@ -2761,14 +2767,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>95</v>
       </c>
       <c r="K48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>1476</v>
       </c>
       <c r="M48">
         <v>55019</v>
@@ -2805,14 +2811,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>96</v>
       </c>
       <c r="K49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2824</v>
       </c>
       <c r="M49">
         <v>55019</v>
@@ -2849,14 +2855,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>96</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="M50">
         <v>55019</v>
@@ -2893,14 +2899,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>96</v>
       </c>
       <c r="K51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>2661</v>
       </c>
       <c r="M51">
         <v>55019</v>
@@ -2937,14 +2943,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>95</v>
       </c>
       <c r="K52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>6456</v>
       </c>
       <c r="M52">
         <v>55021</v>
@@ -2981,14 +2987,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>95</v>
       </c>
       <c r="K53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>4184</v>
       </c>
       <c r="M53">
         <v>55021</v>
@@ -3025,14 +3031,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>96</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>4414</v>
       </c>
       <c r="M54">
         <v>55021</v>
@@ -3069,14 +3075,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>96</v>
       </c>
       <c r="K55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>1920</v>
       </c>
       <c r="M55">
         <v>55021</v>
@@ -3113,14 +3119,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>96</v>
       </c>
       <c r="K56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>4515</v>
       </c>
       <c r="M56">
         <v>55021</v>
@@ -3157,14 +3163,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>95</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>1583</v>
       </c>
       <c r="M57">
         <v>55023</v>
@@ -3201,14 +3207,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>95</v>
       </c>
       <c r="K58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>1133</v>
       </c>
       <c r="M58">
         <v>55023</v>
@@ -3245,14 +3251,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>96</v>
       </c>
       <c r="K59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>1202</v>
       </c>
       <c r="M59">
         <v>55023</v>
@@ -3289,14 +3295,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>96</v>
       </c>
       <c r="K60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="M60">
         <v>55023</v>
@@ -3333,14 +3339,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>96</v>
       </c>
       <c r="K61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>1008</v>
       </c>
       <c r="M61">
         <v>55023</v>
@@ -3377,14 +3383,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>95</v>
       </c>
       <c r="K62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>102586</v>
       </c>
       <c r="M62">
         <v>55025</v>
@@ -3421,14 +3427,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>95</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>61073</v>
       </c>
       <c r="M63">
         <v>55025</v>
@@ -3465,14 +3471,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>96</v>
       </c>
       <c r="K64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>20885</v>
       </c>
       <c r="M64">
         <v>55025</v>
@@ -3509,14 +3515,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>96</v>
       </c>
       <c r="K65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>20056</v>
       </c>
       <c r="M65">
         <v>55025</v>
@@ -3553,14 +3559,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>96</v>
       </c>
       <c r="K66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>26321</v>
       </c>
       <c r="M66">
         <v>55025</v>
@@ -3597,14 +3603,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>95</v>
       </c>
       <c r="K67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>6244</v>
       </c>
       <c r="M67">
         <v>55027</v>
@@ -3641,14 +3647,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>95</v>
       </c>
       <c r="K68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>4502</v>
       </c>
       <c r="M68">
         <v>55027</v>
@@ -3685,14 +3691,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>96</v>
       </c>
       <c r="K69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>6502</v>
       </c>
       <c r="M69">
         <v>55027</v>
@@ -3729,14 +3735,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>96</v>
       </c>
       <c r="K70" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>2543</v>
       </c>
       <c r="M70">
         <v>55027</v>
@@ -3773,14 +3779,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>96</v>
       </c>
       <c r="K71" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>10432</v>
       </c>
       <c r="M71">
         <v>55027</v>
@@ -3817,14 +3823,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>95</v>
       </c>
       <c r="K72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3418</v>
       </c>
       <c r="M72">
         <v>55029</v>
@@ -3861,14 +3867,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>95</v>
       </c>
       <c r="K73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>2936</v>
       </c>
       <c r="M73">
         <v>55029</v>
@@ -3905,14 +3911,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>96</v>
       </c>
       <c r="K74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>2949</v>
       </c>
       <c r="M74">
         <v>55029</v>
@@ -3949,14 +3955,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>96</v>
       </c>
       <c r="K75" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>1099</v>
       </c>
       <c r="M75">
         <v>55029</v>
@@ -3993,14 +3999,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>96</v>
       </c>
       <c r="K76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3189</v>
       </c>
       <c r="M76">
         <v>55029</v>
@@ -4037,14 +4043,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>95</v>
       </c>
       <c r="K77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>4511</v>
       </c>
       <c r="M77">
         <v>55031</v>
@@ -4081,14 +4087,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>95</v>
       </c>
       <c r="K78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3575</v>
       </c>
       <c r="M78">
         <v>55031</v>
@@ -4125,14 +4131,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>96</v>
       </c>
       <c r="K79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3677</v>
       </c>
       <c r="M79">
         <v>55031</v>
@@ -4169,14 +4175,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>96</v>
       </c>
       <c r="K80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="M80">
         <v>55031</v>
@@ -4213,14 +4219,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>96</v>
       </c>
       <c r="K81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>2068</v>
       </c>
       <c r="M81">
         <v>55031</v>
@@ -4257,14 +4263,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>95</v>
       </c>
       <c r="K82" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>4273</v>
       </c>
       <c r="M82">
         <v>55033</v>
@@ -4301,14 +4307,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>95</v>
       </c>
       <c r="K83" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2422</v>
       </c>
       <c r="M83">
         <v>55033</v>
@@ -4345,14 +4351,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>96</v>
       </c>
       <c r="K84" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>3075</v>
       </c>
       <c r="M84">
         <v>55033</v>
@@ -4389,14 +4395,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>96</v>
       </c>
       <c r="K85" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>759</v>
       </c>
       <c r="M85">
         <v>55033</v>
@@ -4433,14 +4439,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>96</v>
       </c>
       <c r="K86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3470</v>
       </c>
       <c r="M86">
         <v>55033</v>
@@ -4477,14 +4483,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>95</v>
       </c>
       <c r="K87" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>13059</v>
       </c>
       <c r="M87">
         <v>55035</v>
@@ -4521,14 +4527,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>95</v>
       </c>
       <c r="K88" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>7324</v>
       </c>
       <c r="M88">
         <v>55035</v>
@@ -4565,14 +4571,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>96</v>
       </c>
       <c r="K89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>6506</v>
       </c>
       <c r="M89">
         <v>55035</v>
@@ -4609,14 +4615,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>2221</v>
       </c>
       <c r="M90">
         <v>55035</v>
@@ -4653,14 +4659,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>96</v>
       </c>
       <c r="K91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>8062</v>
       </c>
       <c r="M91">
         <v>55035</v>
@@ -4697,14 +4703,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>294</v>
       </c>
       <c r="M92">
         <v>55037</v>
@@ -4741,14 +4747,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="M93">
         <v>55037</v>
@@ -4785,14 +4791,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>96</v>
       </c>
       <c r="K94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>654</v>
       </c>
       <c r="M94">
         <v>55037</v>
@@ -4829,14 +4835,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>96</v>
       </c>
       <c r="K95" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="M95">
         <v>55037</v>
@@ -4873,14 +4879,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>96</v>
       </c>
       <c r="K96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="M96">
         <v>55037</v>
@@ -4917,14 +4923,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>95</v>
       </c>
       <c r="K97" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>7376</v>
       </c>
       <c r="M97">
         <v>55039</v>
@@ -4961,14 +4967,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>95</v>
       </c>
       <c r="K98" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>5515</v>
       </c>
       <c r="M98">
         <v>55039</v>
@@ -5005,14 +5011,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>96</v>
       </c>
       <c r="K99" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>7651</v>
       </c>
       <c r="M99">
         <v>55039</v>
@@ -5049,14 +5055,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>96</v>
       </c>
       <c r="K100" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2275</v>
       </c>
       <c r="M100">
         <v>55039</v>
@@ -5093,14 +5099,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>96</v>
       </c>
       <c r="K101" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>12751</v>
       </c>
       <c r="M101">
         <v>55039</v>
@@ -5137,14 +5143,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>95</v>
       </c>
       <c r="K102" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>648</v>
       </c>
       <c r="M102">
         <v>55041</v>
@@ -5181,14 +5187,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>95</v>
       </c>
       <c r="K103" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>610</v>
       </c>
       <c r="M103">
         <v>55041</v>
@@ -5225,14 +5231,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>96</v>
       </c>
       <c r="K104" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>1111</v>
       </c>
       <c r="M104">
         <v>55041</v>
@@ -5269,14 +5275,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>96</v>
       </c>
       <c r="K105" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="M105">
         <v>55041</v>
@@ -5313,14 +5319,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>96</v>
       </c>
       <c r="K106" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>644</v>
       </c>
       <c r="M106">
         <v>55041</v>
@@ -5357,14 +5363,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>95</v>
       </c>
       <c r="K107" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>4485</v>
       </c>
       <c r="M107">
         <v>55043</v>
@@ -5401,14 +5407,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>95</v>
       </c>
       <c r="K108" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3037</v>
       </c>
       <c r="M108">
         <v>55043</v>
@@ -5445,14 +5451,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>96</v>
       </c>
       <c r="K109" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3463</v>
       </c>
       <c r="M109">
         <v>55043</v>
@@ -5489,14 +5495,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>96</v>
       </c>
       <c r="K110" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>1558</v>
       </c>
       <c r="M110">
         <v>55043</v>
@@ -5533,14 +5539,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>96</v>
       </c>
       <c r="K111" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3244</v>
       </c>
       <c r="M111">
         <v>55043</v>
@@ -5577,14 +5583,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>95</v>
       </c>
       <c r="K112" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>4360</v>
       </c>
       <c r="M112">
         <v>55045</v>
@@ -5621,14 +5627,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>95</v>
       </c>
       <c r="K113" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>2767</v>
       </c>
       <c r="M113">
         <v>55045</v>
@@ -5665,14 +5671,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>96</v>
       </c>
       <c r="K114" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>2826</v>
       </c>
       <c r="M114">
         <v>55045</v>
@@ -5709,14 +5715,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>96</v>
       </c>
       <c r="K115" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>1455</v>
       </c>
       <c r="M115">
         <v>55045</v>
@@ -5753,14 +5759,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>96</v>
       </c>
       <c r="K116" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>2462</v>
       </c>
       <c r="M116">
         <v>55045</v>
@@ -5797,14 +5803,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>95</v>
       </c>
       <c r="K117" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>1149</v>
       </c>
       <c r="M117">
         <v>55047</v>
@@ -5841,14 +5847,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>95</v>
       </c>
       <c r="K118" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>870</v>
       </c>
       <c r="M118">
         <v>55047</v>
@@ -5885,14 +5891,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>96</v>
       </c>
       <c r="K119" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>1984</v>
       </c>
       <c r="M119">
         <v>55047</v>
@@ -5929,14 +5935,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>96</v>
       </c>
       <c r="K120" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>436</v>
       </c>
       <c r="M120">
         <v>55047</v>
@@ -5973,14 +5979,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>96</v>
       </c>
       <c r="K121" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>2147</v>
       </c>
       <c r="M121">
         <v>55047</v>
@@ -6017,14 +6023,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>95</v>
       </c>
       <c r="K122" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>3199</v>
       </c>
       <c r="M122">
         <v>55049</v>
@@ -6061,14 +6067,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>95</v>
       </c>
       <c r="K123" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>2162</v>
       </c>
       <c r="M123">
         <v>55049</v>
@@ -6105,14 +6111,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>96</v>
       </c>
       <c r="K124" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>1610</v>
       </c>
       <c r="M124">
         <v>55049</v>
@@ -6149,14 +6155,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>96</v>
       </c>
       <c r="K125" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>826</v>
       </c>
       <c r="M125">
         <v>55049</v>
@@ -6193,14 +6199,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>96</v>
       </c>
       <c r="K126" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>1502</v>
       </c>
       <c r="M126">
         <v>55049</v>
@@ -6237,14 +6243,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>95</v>
       </c>
       <c r="K127" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="M127">
         <v>55051</v>
@@ -6281,14 +6287,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>95</v>
       </c>
       <c r="K128" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="M128">
         <v>55051</v>
@@ -6325,14 +6331,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>96</v>
       </c>
       <c r="K129" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>941</v>
       </c>
       <c r="M129">
         <v>55051</v>
@@ -6369,14 +6375,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>96</v>
       </c>
       <c r="K130" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="M130">
         <v>55051</v>
@@ -6413,14 +6419,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>96</v>
       </c>
       <c r="K131" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="M131">
         <v>55051</v>
@@ -6457,14 +6463,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>95</v>
       </c>
       <c r="K132" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>1846</v>
       </c>
       <c r="M132">
         <v>55053</v>
@@ -6501,14 +6507,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>95</v>
       </c>
       <c r="K133" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>1295</v>
       </c>
       <c r="M133">
         <v>55053</v>
@@ -6545,14 +6551,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>96</v>
       </c>
       <c r="K134" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>1805</v>
       </c>
       <c r="M134">
         <v>55053</v>
@@ -6589,14 +6595,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>96</v>
       </c>
       <c r="K135" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="M135">
         <v>55053</v>
@@ -6633,14 +6639,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>96</v>
       </c>
       <c r="K136" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>1229</v>
       </c>
       <c r="M136">
         <v>55053</v>
@@ -6677,14 +6683,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>95</v>
       </c>
       <c r="K137" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>7538</v>
       </c>
       <c r="M137">
         <v>55055</v>
@@ -6721,14 +6727,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>95</v>
       </c>
       <c r="K138" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>4772</v>
       </c>
       <c r="M138">
         <v>55055</v>
@@ -6765,14 +6771,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>96</v>
       </c>
       <c r="K139" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>5767</v>
       </c>
       <c r="M139">
         <v>55055</v>
@@ -6809,14 +6815,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>96</v>
       </c>
       <c r="K140" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>2564</v>
       </c>
       <c r="M140">
         <v>55055</v>
@@ -6853,14 +6859,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>96</v>
       </c>
       <c r="K141" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>9334</v>
       </c>
       <c r="M141">
         <v>55055</v>
@@ -6897,14 +6903,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>95</v>
       </c>
       <c r="K142" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>1844</v>
       </c>
       <c r="M142">
         <v>55057</v>
@@ -6941,14 +6947,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>95</v>
       </c>
       <c r="K143" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>1358</v>
       </c>
       <c r="M143">
         <v>55057</v>
@@ -6985,14 +6991,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>96</v>
       </c>
       <c r="K144" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>2781</v>
       </c>
       <c r="M144">
         <v>55057</v>
@@ -7029,14 +7035,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>96</v>
       </c>
       <c r="K145" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>565</v>
       </c>
       <c r="M145">
         <v>55057</v>
@@ -7073,14 +7079,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>96</v>
       </c>
       <c r="K146" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>1626</v>
       </c>
       <c r="M146">
         <v>55057</v>
@@ -7117,14 +7123,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>95</v>
       </c>
       <c r="K147" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>14613</v>
       </c>
       <c r="M147">
         <v>55059</v>
@@ -7161,14 +7167,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>95</v>
       </c>
       <c r="K148" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>10872</v>
       </c>
       <c r="M148">
         <v>55059</v>
@@ -7205,14 +7211,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>96</v>
       </c>
       <c r="K149" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>11140</v>
       </c>
       <c r="M149">
         <v>55059</v>
@@ -7249,14 +7255,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>96</v>
       </c>
       <c r="K150" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3731</v>
       </c>
       <c r="M150">
         <v>55059</v>
@@ -7293,14 +7299,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>96</v>
       </c>
       <c r="K151" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>10856</v>
       </c>
       <c r="M151">
         <v>55059</v>
@@ -7337,14 +7343,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>95</v>
       </c>
       <c r="K152" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>1663</v>
       </c>
       <c r="M152">
         <v>55061</v>
@@ -7381,14 +7387,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>95</v>
       </c>
       <c r="K153" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>1496</v>
       </c>
       <c r="M153">
         <v>55061</v>
@@ -7425,14 +7431,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>96</v>
       </c>
       <c r="K154" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>2085</v>
       </c>
       <c r="M154">
         <v>55061</v>
@@ -7469,14 +7475,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>96</v>
       </c>
       <c r="K155" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="M155">
         <v>55061</v>
@@ -7513,14 +7519,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>96</v>
       </c>
       <c r="K156" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>2482</v>
       </c>
       <c r="M156">
         <v>55061</v>
@@ -7557,14 +7563,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>95</v>
       </c>
       <c r="K157" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>15140</v>
       </c>
       <c r="M157">
         <v>55063</v>
@@ -7601,14 +7607,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>95</v>
       </c>
       <c r="K158" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>8902</v>
       </c>
       <c r="M158">
         <v>55063</v>
@@ -7645,14 +7651,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>96</v>
       </c>
       <c r="K159" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>8272</v>
       </c>
       <c r="M159">
         <v>55063</v>
@@ -7689,14 +7695,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>96</v>
       </c>
       <c r="K160" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>3630</v>
       </c>
       <c r="M160">
         <v>55063</v>
@@ -7733,14 +7739,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>96</v>
       </c>
       <c r="K161" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>7442</v>
       </c>
       <c r="M161">
         <v>55063</v>
@@ -7777,14 +7783,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>95</v>
       </c>
       <c r="K162" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>1331</v>
       </c>
       <c r="M162">
         <v>55065</v>
@@ -7821,14 +7827,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>95</v>
       </c>
       <c r="K163" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>1168</v>
       </c>
       <c r="M163">
         <v>55065</v>
@@ -7865,14 +7871,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>96</v>
       </c>
       <c r="K164" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="M164">
         <v>55065</v>
@@ -7909,14 +7915,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>96</v>
       </c>
       <c r="K165" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>564</v>
       </c>
       <c r="M165">
         <v>55065</v>
@@ -7953,14 +7959,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>96</v>
       </c>
       <c r="K166" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>1063</v>
       </c>
       <c r="M166">
         <v>55065</v>
@@ -7997,14 +8003,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>95</v>
       </c>
       <c r="K167" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>1437</v>
       </c>
       <c r="M167">
         <v>55067</v>
@@ -8041,14 +8047,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>95</v>
       </c>
       <c r="K168" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>1193</v>
       </c>
       <c r="M168">
         <v>55067</v>
@@ -8085,14 +8091,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>96</v>
       </c>
       <c r="K169" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>2408</v>
       </c>
       <c r="M169">
         <v>55067</v>
@@ -8129,14 +8135,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>96</v>
       </c>
       <c r="K170" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="M170">
         <v>55067</v>
@@ -8173,14 +8179,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>96</v>
       </c>
       <c r="K171" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>1831</v>
       </c>
       <c r="M171">
         <v>55067</v>
@@ -8217,14 +8223,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>95</v>
       </c>
       <c r="K172" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>2440</v>
       </c>
       <c r="M172">
         <v>55069</v>
@@ -8261,14 +8267,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>95</v>
       </c>
       <c r="K173" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>1733</v>
       </c>
       <c r="M173">
         <v>55069</v>
@@ -8305,14 +8311,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>96</v>
       </c>
       <c r="K174" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3061</v>
       </c>
       <c r="M174">
         <v>55069</v>
@@ -8349,14 +8355,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>96</v>
       </c>
       <c r="K175" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>524</v>
       </c>
       <c r="M175">
         <v>55069</v>
@@ -8393,14 +8399,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>96</v>
       </c>
       <c r="K176" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>2519</v>
       </c>
       <c r="M176">
         <v>55069</v>
@@ -8437,14 +8443,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>95</v>
       </c>
       <c r="K177" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>6448</v>
       </c>
       <c r="M177">
         <v>55071</v>
@@ -8481,14 +8487,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>95</v>
       </c>
       <c r="K178" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>4984</v>
       </c>
       <c r="M178">
         <v>55071</v>
@@ -8525,14 +8531,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>96</v>
       </c>
       <c r="K179" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>6440</v>
       </c>
       <c r="M179">
         <v>55071</v>
@@ -8569,14 +8575,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>96</v>
       </c>
       <c r="K180" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>1418</v>
       </c>
       <c r="M180">
         <v>55071</v>
@@ -8613,14 +8619,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>96</v>
       </c>
       <c r="K181" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>9321</v>
       </c>
       <c r="M181">
         <v>55071</v>
@@ -8657,14 +8663,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>95</v>
       </c>
       <c r="K182" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>11656</v>
       </c>
       <c r="M182">
         <v>55073</v>
@@ -8701,14 +8707,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>95</v>
       </c>
       <c r="K183" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>8048</v>
       </c>
       <c r="M183">
         <v>55073</v>
@@ -8745,14 +8751,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>96</v>
       </c>
       <c r="K184" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>13300</v>
       </c>
       <c r="M184">
         <v>55073</v>
@@ -8789,14 +8795,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>96</v>
       </c>
       <c r="K185" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>2560</v>
       </c>
       <c r="M185">
         <v>55073</v>
@@ -8833,14 +8839,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>96</v>
       </c>
       <c r="K186" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>13415</v>
       </c>
       <c r="M186">
         <v>55073</v>
@@ -8877,14 +8883,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>95</v>
       </c>
       <c r="K187" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>2693</v>
       </c>
       <c r="M187">
         <v>55075</v>
@@ -8921,14 +8927,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>95</v>
       </c>
       <c r="K188" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>2578</v>
       </c>
       <c r="M188">
         <v>55075</v>
@@ -8965,14 +8971,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>96</v>
       </c>
       <c r="K189" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>4634</v>
       </c>
       <c r="M189">
         <v>55075</v>
@@ -9009,14 +9015,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>96</v>
       </c>
       <c r="K190" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="M190">
         <v>55075</v>
@@ -9053,14 +9059,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>96</v>
       </c>
       <c r="K191" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3726</v>
       </c>
       <c r="M191">
         <v>55075</v>
@@ -9097,14 +9103,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>95</v>
       </c>
       <c r="K192" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>1321</v>
       </c>
       <c r="M192">
         <v>55077</v>
@@ -9141,14 +9147,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>95</v>
       </c>
       <c r="K193" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>995</v>
       </c>
       <c r="M193">
         <v>55077</v>
@@ -9185,14 +9191,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>96</v>
       </c>
       <c r="K194" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>1766</v>
       </c>
       <c r="M194">
         <v>55077</v>
@@ -9229,14 +9235,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>96</v>
       </c>
       <c r="K195" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="M195">
         <v>55077</v>
@@ -9273,14 +9279,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>96</v>
       </c>
       <c r="K196" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>1331</v>
       </c>
       <c r="M196">
         <v>55077</v>
@@ -9317,14 +9323,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>95</v>
       </c>
       <c r="K197" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="M197">
         <v>55078</v>
@@ -9361,14 +9367,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>95</v>
       </c>
       <c r="K198" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="M198">
         <v>55078</v>
@@ -9405,14 +9411,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>96</v>
       </c>
       <c r="K199" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="M199">
         <v>55078</v>
@@ -9449,14 +9455,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>96</v>
       </c>
       <c r="K200" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M200">
         <v>55078</v>
@@ -9493,14 +9499,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>96</v>
       </c>
       <c r="K201" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M201">
         <v>55078</v>
@@ -9537,14 +9543,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>95</v>
       </c>
       <c r="K202" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>93715</v>
       </c>
       <c r="M202">
         <v>55079</v>
@@ -9581,14 +9587,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>95</v>
       </c>
       <c r="K203" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>100933</v>
       </c>
       <c r="M203">
         <v>55079</v>
@@ -9625,14 +9631,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>96</v>
       </c>
       <c r="K204" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>29517</v>
       </c>
       <c r="M204">
         <v>55079</v>
@@ -9669,14 +9675,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>96</v>
       </c>
       <c r="K205" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>19172</v>
       </c>
       <c r="M205">
         <v>55079</v>
@@ -9713,14 +9719,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>96</v>
       </c>
       <c r="K206" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>61446</v>
       </c>
       <c r="M206">
         <v>55079</v>
@@ -9757,14 +9763,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>95</v>
       </c>
       <c r="K207" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>3534</v>
       </c>
       <c r="M207">
         <v>55081</v>
@@ -9801,14 +9807,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>95</v>
       </c>
       <c r="K208" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>2271</v>
       </c>
       <c r="M208">
         <v>55081</v>
@@ -9845,14 +9851,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>96</v>
       </c>
       <c r="K209" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>3614</v>
       </c>
       <c r="M209">
         <v>55081</v>
@@ -9889,14 +9895,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>96</v>
       </c>
       <c r="K210" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>990</v>
       </c>
       <c r="M210">
         <v>55081</v>
@@ -9933,14 +9939,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>96</v>
       </c>
       <c r="K211" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>2915</v>
       </c>
       <c r="M211">
         <v>55081</v>
@@ -9977,14 +9983,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>95</v>
       </c>
       <c r="K212" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>2578</v>
       </c>
       <c r="M212">
         <v>55083</v>
@@ -10021,14 +10027,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>95</v>
       </c>
       <c r="K213" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>2419</v>
       </c>
       <c r="M213">
         <v>55083</v>
@@ -10065,14 +10071,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>96</v>
       </c>
       <c r="K214" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>4410</v>
       </c>
       <c r="M214">
         <v>55083</v>
@@ -10109,14 +10115,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>96</v>
       </c>
       <c r="K215" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>531</v>
       </c>
       <c r="M215">
         <v>55083</v>
@@ -10153,14 +10159,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>96</v>
       </c>
       <c r="K216" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>3990</v>
       </c>
       <c r="M216">
         <v>55083</v>
@@ -10197,14 +10203,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>95</v>
       </c>
       <c r="K217" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>3810</v>
       </c>
       <c r="M217">
         <v>55085</v>
@@ -10241,14 +10247,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>95</v>
       </c>
       <c r="K218" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>2494</v>
       </c>
       <c r="M218">
         <v>55085</v>
@@ -10285,14 +10291,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>96</v>
       </c>
       <c r="K219" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>4328</v>
       </c>
       <c r="M219">
         <v>55085</v>
@@ -10329,14 +10335,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>96</v>
       </c>
       <c r="K220" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>1164</v>
       </c>
       <c r="M220">
         <v>55085</v>
@@ -10373,14 +10379,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>96</v>
       </c>
       <c r="K221" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>3232</v>
       </c>
       <c r="M221">
         <v>55085</v>
@@ -10417,14 +10423,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>95</v>
       </c>
       <c r="K222" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>16986</v>
       </c>
       <c r="M222">
         <v>55087</v>
@@ -10461,14 +10467,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>95</v>
       </c>
       <c r="K223" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>11203</v>
       </c>
       <c r="M223">
         <v>55087</v>
@@ -10505,14 +10511,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>96</v>
       </c>
       <c r="K224" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>13849</v>
       </c>
       <c r="M224">
         <v>55087</v>
@@ -10549,14 +10555,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>96</v>
       </c>
       <c r="K225" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>4256</v>
       </c>
       <c r="M225">
         <v>55087</v>
@@ -10593,14 +10599,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>96</v>
       </c>
       <c r="K226" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>18622</v>
       </c>
       <c r="M226">
         <v>55087</v>
@@ -10637,14 +10643,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>95</v>
       </c>
       <c r="K227" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>6872</v>
       </c>
       <c r="M227">
         <v>55089</v>
@@ -10681,14 +10687,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>95</v>
       </c>
       <c r="K228" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>6573</v>
       </c>
       <c r="M228">
         <v>55089</v>
@@ -10725,14 +10731,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>96</v>
       </c>
       <c r="K229" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>5765</v>
       </c>
       <c r="M229">
         <v>55089</v>
@@ -10769,14 +10775,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>96</v>
       </c>
       <c r="K230" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>4830</v>
       </c>
       <c r="M230">
         <v>55089</v>
@@ -10813,14 +10819,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>96</v>
       </c>
       <c r="K231" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>16920</v>
       </c>
       <c r="M231">
         <v>55089</v>
@@ -10857,14 +10863,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>95</v>
       </c>
       <c r="K232" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>561</v>
       </c>
       <c r="M232">
         <v>55091</v>
@@ -10901,14 +10907,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>95</v>
       </c>
       <c r="K233" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>436</v>
       </c>
       <c r="M233">
         <v>55091</v>
@@ -10945,14 +10951,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>96</v>
       </c>
       <c r="K234" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>608</v>
       </c>
       <c r="M234">
         <v>55091</v>
@@ -10989,14 +10995,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>96</v>
       </c>
       <c r="K235" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="M235">
         <v>55091</v>
@@ -11033,14 +11039,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>96</v>
       </c>
       <c r="K236" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>547</v>
       </c>
       <c r="M236">
         <v>55091</v>
@@ -11077,14 +11083,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>95</v>
       </c>
       <c r="K237" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>3200</v>
       </c>
       <c r="M237">
         <v>55093</v>
@@ -11121,14 +11127,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>95</v>
       </c>
       <c r="K238" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>2341</v>
       </c>
       <c r="M238">
         <v>55093</v>
@@ -11165,14 +11171,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>96</v>
       </c>
       <c r="K239" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>2823</v>
       </c>
       <c r="M239">
         <v>55093</v>
@@ -11209,14 +11215,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>96</v>
       </c>
       <c r="K240" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>995</v>
       </c>
       <c r="M240">
         <v>55093</v>
@@ -11253,14 +11259,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>96</v>
       </c>
       <c r="K241" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>2823</v>
       </c>
       <c r="M241">
         <v>55093</v>
@@ -11297,14 +11303,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>95</v>
       </c>
       <c r="K242" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>2474</v>
       </c>
       <c r="M242">
         <v>55095</v>
@@ -11341,14 +11347,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>95</v>
       </c>
       <c r="K243" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>2175</v>
       </c>
       <c r="M243">
         <v>55095</v>
@@ -11385,14 +11391,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>96</v>
       </c>
       <c r="K244" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3543</v>
       </c>
       <c r="M244">
         <v>55095</v>
@@ -11429,14 +11435,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>96</v>
       </c>
       <c r="K245" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>805</v>
       </c>
       <c r="M245">
         <v>55095</v>
@@ -11473,14 +11479,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>96</v>
       </c>
       <c r="K246" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3002</v>
       </c>
       <c r="M246">
         <v>55095</v>
@@ -11517,14 +11523,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>95</v>
       </c>
       <c r="K247" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>9349</v>
       </c>
       <c r="M247">
         <v>55097</v>
@@ -11561,14 +11567,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>95</v>
       </c>
       <c r="K248" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>5037</v>
       </c>
       <c r="M248">
         <v>55097</v>
@@ -11605,14 +11611,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>96</v>
       </c>
       <c r="K249" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>5113</v>
       </c>
       <c r="M249">
         <v>55097</v>
@@ -11649,14 +11655,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>96</v>
       </c>
       <c r="K250" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>1362</v>
       </c>
       <c r="M250">
         <v>55097</v>
@@ -11693,14 +11699,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>96</v>
       </c>
       <c r="K251" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>5867</v>
       </c>
       <c r="M251">
         <v>55097</v>
@@ -11737,14 +11743,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>95</v>
       </c>
       <c r="K252" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>1394</v>
       </c>
       <c r="M252">
         <v>55099</v>
@@ -11781,14 +11787,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>95</v>
       </c>
       <c r="K253" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>855</v>
       </c>
       <c r="M253">
         <v>55099</v>
@@ -11825,14 +11831,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>96</v>
       </c>
       <c r="K254" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>1674</v>
       </c>
       <c r="M254">
         <v>55099</v>
@@ -11869,14 +11875,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>96</v>
       </c>
       <c r="K255" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="M255">
         <v>55099</v>
@@ -11913,14 +11919,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>96</v>
       </c>
       <c r="K256" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>1148</v>
       </c>
       <c r="M256">
         <v>55099</v>
@@ -11957,14 +11963,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>95</v>
       </c>
       <c r="K257" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>14652</v>
       </c>
       <c r="M257">
         <v>55101</v>
@@ -12001,14 +12007,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>95</v>
       </c>
       <c r="K258" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>14087</v>
       </c>
       <c r="M258">
         <v>55101</v>
@@ -12045,14 +12051,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>96</v>
       </c>
       <c r="K259" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>11757</v>
       </c>
       <c r="M259">
         <v>55101</v>
@@ -12089,14 +12095,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>96</v>
       </c>
       <c r="K260" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>5270</v>
       </c>
       <c r="M260">
         <v>55101</v>
@@ -12133,14 +12139,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>96</v>
       </c>
       <c r="K261" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>18699</v>
       </c>
       <c r="M261">
         <v>55101</v>
@@ -12177,14 +12183,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>95</v>
       </c>
       <c r="K262" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>1785</v>
       </c>
       <c r="M262">
         <v>55103</v>
@@ -12221,14 +12227,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>95</v>
       </c>
       <c r="K263" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>1277</v>
       </c>
       <c r="M263">
         <v>55103</v>
@@ -12265,14 +12271,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>96</v>
       </c>
       <c r="K264" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>1435</v>
       </c>
       <c r="M264">
         <v>55103</v>
@@ -12309,14 +12315,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>96</v>
       </c>
       <c r="K265" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="M265">
         <v>55103</v>
@@ -12353,14 +12359,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>96</v>
       </c>
       <c r="K266" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>1158</v>
       </c>
       <c r="M266">
         <v>55103</v>
@@ -12397,14 +12403,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>95</v>
       </c>
       <c r="K267" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>17338</v>
       </c>
       <c r="M267">
         <v>55105</v>
@@ -12441,14 +12447,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>95</v>
       </c>
       <c r="K268" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>11249</v>
       </c>
       <c r="M268">
         <v>55105</v>
@@ -12485,14 +12491,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>96</v>
       </c>
       <c r="K269" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>10265</v>
       </c>
       <c r="M269">
         <v>55105</v>
@@ -12529,14 +12535,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>96</v>
       </c>
       <c r="K270" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>4744</v>
       </c>
       <c r="M270">
         <v>55105</v>
@@ -12573,14 +12579,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>96</v>
       </c>
       <c r="K271" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>9039</v>
       </c>
       <c r="M271">
         <v>55105</v>
@@ -12617,14 +12623,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>95</v>
       </c>
       <c r="K272" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>1094</v>
       </c>
       <c r="M272">
         <v>55107</v>
@@ -12661,14 +12667,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>95</v>
       </c>
       <c r="K273" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>818</v>
       </c>
       <c r="M273">
         <v>55107</v>
@@ -12705,14 +12711,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>96</v>
       </c>
       <c r="K274" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>1618</v>
       </c>
       <c r="M274">
         <v>55107</v>
@@ -12749,14 +12755,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>96</v>
       </c>
       <c r="K275" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="M275">
         <v>55107</v>
@@ -12793,14 +12799,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>96</v>
       </c>
       <c r="K276" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>1340</v>
       </c>
       <c r="M276">
         <v>55107</v>
@@ -12837,14 +12843,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>95</v>
       </c>
       <c r="K277" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>7196</v>
       </c>
       <c r="M277">
         <v>55111</v>
@@ -12881,14 +12887,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>95</v>
       </c>
       <c r="K278" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>4527</v>
       </c>
       <c r="M278">
         <v>55111</v>
@@ -12925,14 +12931,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>96</v>
       </c>
       <c r="K279" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>4698</v>
       </c>
       <c r="M279">
         <v>55111</v>
@@ -12969,14 +12975,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>96</v>
       </c>
       <c r="K280" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>2196</v>
       </c>
       <c r="M280">
         <v>55111</v>
@@ -13013,14 +13019,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>96</v>
       </c>
       <c r="K281" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>3902</v>
       </c>
       <c r="M281">
         <v>55111</v>
@@ -13057,14 +13063,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>95</v>
       </c>
       <c r="K282" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>1653</v>
       </c>
       <c r="M282">
         <v>55113</v>
@@ -13101,14 +13107,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>95</v>
       </c>
       <c r="K283" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>976</v>
       </c>
       <c r="M283">
         <v>55113</v>
@@ -13145,14 +13151,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>96</v>
       </c>
       <c r="K284" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>2035</v>
       </c>
       <c r="M284">
         <v>55113</v>
@@ -13189,14 +13195,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>96</v>
       </c>
       <c r="K285" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>451</v>
       </c>
       <c r="M285">
         <v>55113</v>
@@ -13233,14 +13239,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>96</v>
       </c>
       <c r="K286" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>1169</v>
       </c>
       <c r="M286">
         <v>55113</v>
@@ -13277,14 +13283,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>95</v>
       </c>
       <c r="K287" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>2977</v>
       </c>
       <c r="M287">
         <v>55115</v>
@@ -13321,14 +13327,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>95</v>
       </c>
       <c r="K288" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>2125</v>
       </c>
       <c r="M288">
         <v>55115</v>
@@ -13365,14 +13371,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>96</v>
       </c>
       <c r="K289" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>4270</v>
       </c>
       <c r="M289">
         <v>55115</v>
@@ -13409,14 +13415,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>96</v>
       </c>
       <c r="K290" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>624</v>
       </c>
       <c r="M290">
         <v>55115</v>
@@ -13453,14 +13459,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>96</v>
       </c>
       <c r="K291" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>4219</v>
       </c>
       <c r="M291">
         <v>55115</v>
@@ -13497,14 +13503,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>95</v>
       </c>
       <c r="K292" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>8538</v>
       </c>
       <c r="M292">
         <v>55117</v>
@@ -13541,14 +13547,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>95</v>
       </c>
       <c r="K293" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>7176</v>
       </c>
       <c r="M293">
         <v>55117</v>
@@ -13585,14 +13591,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>96</v>
       </c>
       <c r="K294" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>6533</v>
       </c>
       <c r="M294">
         <v>55117</v>
@@ -13629,14 +13635,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>96</v>
       </c>
       <c r="K295" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>3256</v>
       </c>
       <c r="M295">
         <v>55117</v>
@@ -13673,14 +13679,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>96</v>
       </c>
       <c r="K296" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>15546</v>
       </c>
       <c r="M296">
         <v>55117</v>
@@ -13717,14 +13723,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>95</v>
       </c>
       <c r="K297" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>5672</v>
       </c>
       <c r="M297">
         <v>55109</v>
@@ -13761,14 +13767,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>95</v>
       </c>
       <c r="K298" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>4892</v>
       </c>
       <c r="M298">
         <v>55109</v>
@@ -13805,14 +13811,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>96</v>
       </c>
       <c r="K299" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>6701</v>
       </c>
       <c r="M299">
         <v>55109</v>
@@ -13849,14 +13855,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>96</v>
       </c>
       <c r="K300" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>2656</v>
       </c>
       <c r="M300">
         <v>55109</v>
@@ -13893,14 +13899,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>96</v>
       </c>
       <c r="K301" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>6893</v>
       </c>
       <c r="M301">
         <v>55109</v>
@@ -13937,14 +13943,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>95</v>
       </c>
       <c r="K302" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>1279</v>
       </c>
       <c r="M302">
         <v>55119</v>
@@ -13981,14 +13987,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>95</v>
       </c>
       <c r="K303" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>851</v>
       </c>
       <c r="M303">
         <v>55119</v>
@@ -14025,14 +14031,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>96</v>
       </c>
       <c r="K304" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>2101</v>
       </c>
       <c r="M304">
         <v>55119</v>
@@ -14069,14 +14075,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>96</v>
       </c>
       <c r="K305" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="M305">
         <v>55119</v>
@@ -14113,14 +14119,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>96</v>
       </c>
       <c r="K306" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>1900</v>
       </c>
       <c r="M306">
         <v>55119</v>
@@ -14157,14 +14163,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>95</v>
       </c>
       <c r="K307" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>2430</v>
       </c>
       <c r="M307">
         <v>55121</v>
@@ -14201,14 +14207,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>95</v>
       </c>
       <c r="K308" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>1989</v>
       </c>
       <c r="M308">
         <v>55121</v>
@@ -14245,14 +14251,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>96</v>
       </c>
       <c r="K309" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>2415</v>
       </c>
       <c r="M309">
         <v>55121</v>
@@ -14289,14 +14295,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>96</v>
       </c>
       <c r="K310" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>531</v>
       </c>
       <c r="M310">
         <v>55121</v>
@@ -14333,14 +14339,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>96</v>
       </c>
       <c r="K311" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>1779</v>
       </c>
       <c r="M311">
         <v>55121</v>
@@ -14377,14 +14383,14 @@
       <c r="I312">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>3</v>
+      <c r="J312" t="s">
+        <v>95</v>
       </c>
       <c r="K312" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>3477</v>
       </c>
       <c r="M312">
         <v>55123</v>
@@ -14421,14 +14427,14 @@
       <c r="I313">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>3</v>
+      <c r="J313" t="s">
+        <v>95</v>
       </c>
       <c r="K313" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>1935</v>
       </c>
       <c r="M313">
         <v>55123</v>
@@ -14465,14 +14471,14 @@
       <c r="I314">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>3</v>
+      <c r="J314" t="s">
+        <v>96</v>
       </c>
       <c r="K314" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>2438</v>
       </c>
       <c r="M314">
         <v>55123</v>
@@ -14509,14 +14515,14 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>3</v>
+      <c r="J315" t="s">
+        <v>96</v>
       </c>
       <c r="K315" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>636</v>
       </c>
       <c r="M315">
         <v>55123</v>
@@ -14553,14 +14559,14 @@
       <c r="I316">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>3</v>
+      <c r="J316" t="s">
+        <v>96</v>
       </c>
       <c r="K316" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>1879</v>
       </c>
       <c r="M316">
         <v>55123</v>
@@ -14597,14 +14603,14 @@
       <c r="I317">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>3</v>
+      <c r="J317" t="s">
+        <v>95</v>
       </c>
       <c r="K317" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>2141</v>
       </c>
       <c r="M317">
         <v>55125</v>
@@ -14641,14 +14647,14 @@
       <c r="I318">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>3</v>
+      <c r="J318" t="s">
+        <v>95</v>
       </c>
       <c r="K318" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>1413</v>
       </c>
       <c r="M318">
         <v>55125</v>
@@ -14685,14 +14691,14 @@
       <c r="I319">
         <v>1</v>
       </c>
-      <c r="J319">
-        <v>3</v>
+      <c r="J319" t="s">
+        <v>96</v>
       </c>
       <c r="K319" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>3242</v>
       </c>
       <c r="M319">
         <v>55125</v>
@@ -14729,14 +14735,14 @@
       <c r="I320">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>3</v>
+      <c r="J320" t="s">
+        <v>96</v>
       </c>
       <c r="K320" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>833</v>
       </c>
       <c r="M320">
         <v>55125</v>
@@ -14773,14 +14779,14 @@
       <c r="I321">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>3</v>
+      <c r="J321" t="s">
+        <v>96</v>
       </c>
       <c r="K321" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>2007</v>
       </c>
       <c r="M321">
         <v>55125</v>
@@ -14817,14 +14823,14 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>3</v>
+      <c r="J322" t="s">
+        <v>95</v>
       </c>
       <c r="K322" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>8406</v>
       </c>
       <c r="M322">
         <v>55127</v>
@@ -14861,14 +14867,14 @@
       <c r="I323">
         <v>1</v>
       </c>
-      <c r="J323">
-        <v>3</v>
+      <c r="J323" t="s">
+        <v>95</v>
       </c>
       <c r="K323" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>5175</v>
       </c>
       <c r="M323">
         <v>55127</v>
@@ -14905,14 +14911,14 @@
       <c r="I324">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>3</v>
+      <c r="J324" t="s">
+        <v>96</v>
       </c>
       <c r="K324" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>7535</v>
       </c>
       <c r="M324">
         <v>55127</v>
@@ -14949,14 +14955,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>3</v>
+      <c r="J325" t="s">
+        <v>96</v>
       </c>
       <c r="K325" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>3329</v>
       </c>
       <c r="M325">
         <v>55127</v>
@@ -14993,14 +14999,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>3</v>
+      <c r="J326" t="s">
+        <v>96</v>
       </c>
       <c r="K326" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>10720</v>
       </c>
       <c r="M326">
         <v>55127</v>
@@ -15037,14 +15043,14 @@
       <c r="I327">
         <v>1</v>
       </c>
-      <c r="J327">
-        <v>3</v>
+      <c r="J327" t="s">
+        <v>95</v>
       </c>
       <c r="K327" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>1418</v>
       </c>
       <c r="M327">
         <v>55129</v>
@@ -15081,14 +15087,14 @@
       <c r="I328">
         <v>1</v>
       </c>
-      <c r="J328">
-        <v>3</v>
+      <c r="J328" t="s">
+        <v>95</v>
       </c>
       <c r="K328" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L328">
-        <v>4</v>
+        <v>1060</v>
       </c>
       <c r="M328">
         <v>55129</v>
@@ -15125,14 +15131,14 @@
       <c r="I329">
         <v>1</v>
       </c>
-      <c r="J329">
-        <v>3</v>
+      <c r="J329" t="s">
+        <v>96</v>
       </c>
       <c r="K329" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>1927</v>
       </c>
       <c r="M329">
         <v>55129</v>
@@ -15169,14 +15175,14 @@
       <c r="I330">
         <v>1</v>
       </c>
-      <c r="J330">
-        <v>3</v>
+      <c r="J330" t="s">
+        <v>96</v>
       </c>
       <c r="K330" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="M330">
         <v>55129</v>
@@ -15213,14 +15219,14 @@
       <c r="I331">
         <v>1</v>
       </c>
-      <c r="J331">
-        <v>3</v>
+      <c r="J331" t="s">
+        <v>96</v>
       </c>
       <c r="K331" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>1360</v>
       </c>
       <c r="M331">
         <v>55129</v>
@@ -15257,14 +15263,14 @@
       <c r="I332">
         <v>1</v>
       </c>
-      <c r="J332">
-        <v>3</v>
+      <c r="J332" t="s">
+        <v>95</v>
       </c>
       <c r="K332" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>7677</v>
       </c>
       <c r="M332">
         <v>55131</v>
@@ -15301,14 +15307,14 @@
       <c r="I333">
         <v>1</v>
       </c>
-      <c r="J333">
-        <v>3</v>
+      <c r="J333" t="s">
+        <v>95</v>
       </c>
       <c r="K333" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>6382</v>
       </c>
       <c r="M333">
         <v>55131</v>
@@ -15345,14 +15351,14 @@
       <c r="I334">
         <v>1</v>
       </c>
-      <c r="J334">
-        <v>3</v>
+      <c r="J334" t="s">
+        <v>96</v>
       </c>
       <c r="K334" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>9581</v>
       </c>
       <c r="M334">
         <v>55131</v>
@@ -15389,14 +15395,14 @@
       <c r="I335">
         <v>1</v>
       </c>
-      <c r="J335">
-        <v>3</v>
+      <c r="J335" t="s">
+        <v>96</v>
       </c>
       <c r="K335" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>4824</v>
       </c>
       <c r="M335">
         <v>55131</v>
@@ -15433,14 +15439,14 @@
       <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336">
-        <v>3</v>
+      <c r="J336" t="s">
+        <v>96</v>
       </c>
       <c r="K336" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L336">
-        <v>4</v>
+        <v>25506</v>
       </c>
       <c r="M336">
         <v>55131</v>
@@ -15477,14 +15483,14 @@
       <c r="I337">
         <v>1</v>
       </c>
-      <c r="J337">
-        <v>3</v>
+      <c r="J337" t="s">
+        <v>95</v>
       </c>
       <c r="K337" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>26340</v>
       </c>
       <c r="M337">
         <v>55133</v>
@@ -15521,14 +15527,14 @@
       <c r="I338">
         <v>1</v>
       </c>
-      <c r="J338">
-        <v>3</v>
+      <c r="J338" t="s">
+        <v>95</v>
       </c>
       <c r="K338" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L338">
-        <v>4</v>
+        <v>24785</v>
       </c>
       <c r="M338">
         <v>55133</v>
@@ -15565,14 +15571,14 @@
       <c r="I339">
         <v>1</v>
       </c>
-      <c r="J339">
-        <v>3</v>
+      <c r="J339" t="s">
+        <v>96</v>
       </c>
       <c r="K339" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L339">
-        <v>4</v>
+        <v>27187</v>
       </c>
       <c r="M339">
         <v>55133</v>
@@ -15609,14 +15615,14 @@
       <c r="I340">
         <v>1</v>
       </c>
-      <c r="J340">
-        <v>3</v>
+      <c r="J340" t="s">
+        <v>96</v>
       </c>
       <c r="K340" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L340">
-        <v>4</v>
+        <v>18522</v>
       </c>
       <c r="M340">
         <v>55133</v>
@@ -15653,14 +15659,14 @@
       <c r="I341">
         <v>1</v>
       </c>
-      <c r="J341">
-        <v>3</v>
+      <c r="J341" t="s">
+        <v>96</v>
       </c>
       <c r="K341" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>75124</v>
       </c>
       <c r="M341">
         <v>55133</v>
@@ -15697,14 +15703,14 @@
       <c r="I342">
         <v>1</v>
       </c>
-      <c r="J342">
-        <v>3</v>
+      <c r="J342" t="s">
+        <v>95</v>
       </c>
       <c r="K342" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>3884</v>
       </c>
       <c r="M342">
         <v>55135</v>
@@ -15741,14 +15747,14 @@
       <c r="I343">
         <v>1</v>
       </c>
-      <c r="J343">
-        <v>3</v>
+      <c r="J343" t="s">
+        <v>95</v>
       </c>
       <c r="K343" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>2583</v>
       </c>
       <c r="M343">
         <v>55135</v>
@@ -15785,14 +15791,14 @@
       <c r="I344">
         <v>1</v>
       </c>
-      <c r="J344">
-        <v>3</v>
+      <c r="J344" t="s">
+        <v>96</v>
       </c>
       <c r="K344" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L344">
-        <v>4</v>
+        <v>4738</v>
       </c>
       <c r="M344">
         <v>55135</v>
@@ -15829,14 +15835,14 @@
       <c r="I345">
         <v>1</v>
       </c>
-      <c r="J345">
-        <v>3</v>
+      <c r="J345" t="s">
+        <v>96</v>
       </c>
       <c r="K345" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>818</v>
       </c>
       <c r="M345">
         <v>55135</v>
@@ -15873,14 +15879,14 @@
       <c r="I346">
         <v>1</v>
       </c>
-      <c r="J346">
-        <v>3</v>
+      <c r="J346" t="s">
+        <v>96</v>
       </c>
       <c r="K346" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>5195</v>
       </c>
       <c r="M346">
         <v>55135</v>
@@ -15917,14 +15923,14 @@
       <c r="I347">
         <v>1</v>
       </c>
-      <c r="J347">
-        <v>3</v>
+      <c r="J347" t="s">
+        <v>95</v>
       </c>
       <c r="K347" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>1503</v>
       </c>
       <c r="M347">
         <v>55137</v>
@@ -15961,14 +15967,14 @@
       <c r="I348">
         <v>1</v>
       </c>
-      <c r="J348">
-        <v>3</v>
+      <c r="J348" t="s">
+        <v>95</v>
       </c>
       <c r="K348" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>1182</v>
       </c>
       <c r="M348">
         <v>55137</v>
@@ -16005,14 +16011,14 @@
       <c r="I349">
         <v>1</v>
       </c>
-      <c r="J349">
-        <v>3</v>
+      <c r="J349" t="s">
+        <v>96</v>
       </c>
       <c r="K349" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L349">
-        <v>4</v>
+        <v>2392</v>
       </c>
       <c r="M349">
         <v>55137</v>
@@ -16049,14 +16055,14 @@
       <c r="I350">
         <v>1</v>
       </c>
-      <c r="J350">
-        <v>3</v>
+      <c r="J350" t="s">
+        <v>96</v>
       </c>
       <c r="K350" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="M350">
         <v>55137</v>
@@ -16093,14 +16099,14 @@
       <c r="I351">
         <v>1</v>
       </c>
-      <c r="J351">
-        <v>3</v>
+      <c r="J351" t="s">
+        <v>96</v>
       </c>
       <c r="K351" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>2391</v>
       </c>
       <c r="M351">
         <v>55137</v>
@@ -16137,14 +16143,14 @@
       <c r="I352">
         <v>1</v>
       </c>
-      <c r="J352">
-        <v>3</v>
+      <c r="J352" t="s">
+        <v>95</v>
       </c>
       <c r="K352" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L352">
-        <v>4</v>
+        <v>17819</v>
       </c>
       <c r="M352">
         <v>55139</v>
@@ -16181,14 +16187,14 @@
       <c r="I353">
         <v>1</v>
       </c>
-      <c r="J353">
-        <v>3</v>
+      <c r="J353" t="s">
+        <v>95</v>
       </c>
       <c r="K353" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L353">
-        <v>4</v>
+        <v>11194</v>
       </c>
       <c r="M353">
         <v>55139</v>
@@ -16225,14 +16231,14 @@
       <c r="I354">
         <v>1</v>
       </c>
-      <c r="J354">
-        <v>3</v>
+      <c r="J354" t="s">
+        <v>96</v>
       </c>
       <c r="K354" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L354">
-        <v>4</v>
+        <v>13294</v>
       </c>
       <c r="M354">
         <v>55139</v>
@@ -16269,14 +16275,14 @@
       <c r="I355">
         <v>1</v>
       </c>
-      <c r="J355">
-        <v>3</v>
+      <c r="J355" t="s">
+        <v>96</v>
       </c>
       <c r="K355" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L355">
-        <v>4</v>
+        <v>3953</v>
       </c>
       <c r="M355">
         <v>55139</v>
@@ -16313,14 +16319,14 @@
       <c r="I356">
         <v>1</v>
       </c>
-      <c r="J356">
-        <v>3</v>
+      <c r="J356" t="s">
+        <v>96</v>
       </c>
       <c r="K356" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L356">
-        <v>4</v>
+        <v>16050</v>
       </c>
       <c r="M356">
         <v>55139</v>
@@ -16357,14 +16363,14 @@
       <c r="I357">
         <v>1</v>
       </c>
-      <c r="J357">
-        <v>3</v>
+      <c r="J357" t="s">
+        <v>95</v>
       </c>
       <c r="K357" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L357">
-        <v>4</v>
+        <v>6748</v>
       </c>
       <c r="M357">
         <v>55141</v>
@@ -16401,14 +16407,14 @@
       <c r="I358">
         <v>1</v>
       </c>
-      <c r="J358">
-        <v>3</v>
+      <c r="J358" t="s">
+        <v>95</v>
       </c>
       <c r="K358" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>4425</v>
       </c>
       <c r="M358">
         <v>55141</v>
@@ -16445,14 +16451,14 @@
       <c r="I359">
         <v>1</v>
       </c>
-      <c r="J359">
-        <v>3</v>
+      <c r="J359" t="s">
+        <v>96</v>
       </c>
       <c r="K359" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L359">
-        <v>4</v>
+        <v>6942</v>
       </c>
       <c r="M359">
         <v>55141</v>
@@ -16489,14 +16495,14 @@
       <c r="I360">
         <v>1</v>
       </c>
-      <c r="J360">
-        <v>3</v>
+      <c r="J360" t="s">
+        <v>96</v>
       </c>
       <c r="K360" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L360">
-        <v>4</v>
+        <v>1480</v>
       </c>
       <c r="M360">
         <v>55141</v>
@@ -16533,14 +16539,14 @@
       <c r="I361">
         <v>1</v>
       </c>
-      <c r="J361">
-        <v>3</v>
+      <c r="J361" t="s">
+        <v>96</v>
       </c>
       <c r="K361" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L361">
-        <v>4</v>
+        <v>7221</v>
       </c>
       <c r="M361">
         <v>55141</v>
